--- a/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
+++ b/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
@@ -20,9 +20,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市溝美段一小段01480000地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市遠東段06300000地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市遠東段06310000地號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市遠東段06320000地號</t>
+  </si>
+  <si>
+    <t>1000分之53</t>
+  </si>
+  <si>
+    <t>7分之4</t>
+  </si>
+  <si>
+    <t>廖靖汝</t>
+  </si>
+  <si>
+    <t>蘇震清</t>
+  </si>
+  <si>
+    <t>87年11月03日</t>
+  </si>
+  <si>
+    <t>94年04月08日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-30</t>
+  </si>
+  <si>
+    <t>tmpb3b61</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -37,67 +130,22 @@
     <t>登記（取得）時間</t>
   </si>
   <si>
-    <t>登記（.取得）原因</t>
+    <t>登記（取得）原因</t>
   </si>
   <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣屏東市溝美段一小段 0148-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市遠東段0630-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市遠東段0631 -0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市遠東段0632-0000 地號</t>
-  </si>
-  <si>
-    <t>1000分之 53</t>
-  </si>
-  <si>
-    <t>7分之4</t>
-  </si>
-  <si>
-    <t>廖靖汝</t>
-  </si>
-  <si>
-    <t>蘇震清</t>
-  </si>
-  <si>
-    <t>87年11月 03日</t>
-  </si>
-  <si>
-    <t>94年04月 08日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市溝美段一小段 00875-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市遠東段00064-000 建號</t>
+    <t>屏東縣屏東市溝美段一小段00875000建號</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市遠東段00064000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>94年04月. 08日</t>
+    <t>94年04月.08日</t>
   </si>
   <si>
     <t>廠牌.型號</t>
@@ -112,22 +160,16 @@
     <t>三陽本田</t>
   </si>
   <si>
-    <t>型 式</t>
+    <t>型式</t>
   </si>
   <si>
     <t>製造廠名稱</t>
   </si>
   <si>
-    <t>國籍標示 及.編號</t>
-  </si>
-  <si>
-    <t>97年05月 06日</t>
-  </si>
-  <si>
-    <t>登記（取 得）時間</t>
-  </si>
-  <si>
-    <t>登記（取 得）原因</t>
+    <t>國籍標示及.編號</t>
+  </si>
+  <si>
+    <t>97年05月06日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -151,7 +193,7 @@
     <t>屏東繁華郵局(第23支局)</t>
   </si>
   <si>
-    <t>屏東廣東路郵局（第19支 局）</t>
+    <t>屏東廣東路郵局（第19支局）</t>
   </si>
   <si>
     <t>臺灣土地銀行營業部</t>
@@ -205,22 +247,22 @@
     <t>安泰喬壽還本終身壽險</t>
   </si>
   <si>
-    <t>89.09.23-109.09.23 銀行扣 款年繳51,304</t>
-  </si>
-  <si>
-    <t>89.09.23-109.09.23 銀行扣 款年繳43,081</t>
-  </si>
-  <si>
-    <t>被保險人一蘇〇淳 89.09.23-109.09.23 銀行扣 款年繳19,274</t>
-  </si>
-  <si>
-    <t>被保險人-蘇〇婕 89.09.23-109.09.23 銀行扣 款年繳18,476</t>
-  </si>
-  <si>
-    <t>被保險人蘇〇淳 92.08.12-112.08.12 銀行扣 款年繳68,846</t>
-  </si>
-  <si>
-    <t>被保險人一蘇〇婕 92.08.12-112.08.12 銀行扣 款 70,084</t>
+    <t>89.09.23109.09.23銀行扣款年繳51304</t>
+  </si>
+  <si>
+    <t>89.09.23109.09.23銀行扣款年繳43081</t>
+  </si>
+  <si>
+    <t>被保險人一蘇〇淳89.09.23109.09.23銀行扣款年繳19274</t>
+  </si>
+  <si>
+    <t>被保險人蘇〇婕89.09.23109.09.23銀行扣款年繳18476</t>
+  </si>
+  <si>
+    <t>被保險人蘇〇淳92.08.12112.08.12銀行扣款年繳68846</t>
+  </si>
+  <si>
+    <t>被保險人一蘇〇婕92.08.12112.08.12銀行扣款70084</t>
   </si>
   <si>
     <t>投資人</t>
@@ -247,7 +289,7 @@
     <t>高雄市精富路148號</t>
   </si>
   <si>
-    <t>95年08月 23日</t>
+    <t>95年08月23日</t>
   </si>
 </sst>
 </file>
@@ -606,13 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,109 +676,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>487</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2">
         <v>1645714</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2">
         <v>493714</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>976</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2">
         <v>8228571</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -754,25 +901,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -780,25 +927,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>96.66</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -806,22 +953,22 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>481.98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="2">
         <v>3785143</v>
@@ -842,22 +989,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -865,19 +1012,19 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2">
         <v>830000</v>
@@ -888,22 +1035,22 @@
         <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -921,19 +1068,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -941,16 +1088,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>1103604</v>
@@ -961,16 +1108,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>1419796</v>
@@ -981,16 +1128,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>668766</v>
@@ -1001,16 +1148,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2">
         <v>608453</v>
@@ -1021,16 +1168,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2">
         <v>369603</v>
@@ -1041,16 +1188,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>625902</v>
@@ -1071,16 +1218,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1088,13 +1235,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>760000</v>
@@ -1115,16 +1262,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1132,16 +1279,16 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1149,16 +1296,16 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1166,16 +1313,16 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1183,16 +1330,16 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1200,16 +1347,16 @@
         <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1217,16 +1364,16 @@
         <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1244,22 +1391,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1267,22 +1414,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
+++ b/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣屏東市溝美段一小段01480000地號</t>
+  </si>
+  <si>
     <t>嘉義市嘉義市遠東段06300000地號</t>
   </si>
   <si>
@@ -79,18 +82,33 @@
     <t>嘉義市嘉義市遠東段06320000地號</t>
   </si>
   <si>
+    <t>1000分之53</t>
+  </si>
+  <si>
     <t>7分之4</t>
   </si>
   <si>
+    <t>廖靖汝</t>
+  </si>
+  <si>
     <t>蘇震清</t>
   </si>
   <si>
+    <t>87年11月03日</t>
+  </si>
+  <si>
     <t>94年04月08日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>拍賣</t>
   </si>
   <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>land</t>
   </si>
   <si>
@@ -106,22 +124,10 @@
     <t>屏東縣屏東市溝美段一小段00875000建號</t>
   </si>
   <si>
+    <t>嘉義市嘉義市遠東段00064000建號</t>
+  </si>
+  <si>
     <t>全部</t>
-  </si>
-  <si>
-    <t>廖靖汝</t>
-  </si>
-  <si>
-    <t>87年11月03日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市遠東段00064000建號</t>
   </si>
   <si>
     <t>94年04月.08日</t>
@@ -576,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,160 +640,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>189</v>
+        <v>487</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1645714</v>
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>1718</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.571428571428571</v>
+        <v>0.053</v>
       </c>
       <c r="Q2" s="2">
-        <v>108</v>
+        <v>25.811</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
-        <v>493714</v>
+        <v>1645714</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>1718</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.571428571428571</v>
       </c>
       <c r="Q3" s="2">
-        <v>33.7142857142857</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>976</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
-        <v>8228571</v>
+        <v>493714</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1718</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.571428571428571</v>
       </c>
       <c r="Q4" s="2">
+        <v>33.7142857142857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>976</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8228571</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="Q5" s="2">
         <v>557.714285714286</v>
       </c>
     </row>
@@ -798,59 +857,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1">
-        <v>96.66</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="2">
+        <v>96.66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>96.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2">
         <v>481.98</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2">
         <v>3785143</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>275.417142857143</v>
       </c>
     </row>
   </sheetData>
@@ -859,6 +1025,408 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1">
+        <v>830000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2">
+        <v>830000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1103604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1103604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1419796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>668766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2">
+        <v>608453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2">
+        <v>369603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>625902</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1">
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
+        <v>760000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -868,347 +1436,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1997</v>
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1">
-        <v>830000</v>
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1103604</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1419796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2">
-        <v>668766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2">
-        <v>608453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2">
-        <v>369603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>625902</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1">
-        <v>760000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>87</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>88</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
+++ b/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -133,28 +133,13 @@
     <t>94年04月.08日</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>三陽本田</t>
   </si>
   <si>
     <t>97年05月06日</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及.編號</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
   </si>
   <si>
     <t>彰化商業銀行嘉義分行</t>
@@ -1026,38 +1011,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1">
-        <v>1997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1">
-        <v>830000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1066,7 +1072,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
@@ -1074,28 +1080,26 @@
       <c r="G2" s="2">
         <v>830000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1113,13 +1117,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1130,16 +1134,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1150,16 +1154,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1170,16 +1174,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1190,19 +1194,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F5" s="2">
         <v>608453</v>
@@ -1210,19 +1214,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2">
         <v>369603</v>
@@ -1230,16 +1234,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1263,7 +1267,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1277,10 +1281,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1307,118 +1311,118 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1439,42 +1443,42 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
+++ b/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -133,6 +133,9 @@
     <t>94年04月.08日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t>97年05月06日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>彰化商業銀行嘉義分行</t>
@@ -924,7 +930,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -977,7 +983,7 @@
         <v>3785143</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>30</v>
@@ -1022,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1063,7 +1069,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1072,7 +1078,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
@@ -1081,7 +1087,7 @@
         <v>830000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1117,13 +1123,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1137,13 +1143,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1157,13 +1163,13 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1177,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1197,16 +1203,16 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2">
         <v>608453</v>
@@ -1217,16 +1223,16 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2">
         <v>369603</v>
@@ -1237,13 +1243,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1267,7 +1273,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1284,7 +1290,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1311,16 +1317,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1328,16 +1334,16 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1345,16 +1351,16 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1362,16 +1368,16 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1379,16 +1385,16 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1396,16 +1402,16 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1413,16 +1419,16 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1443,19 +1449,19 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1466,19 +1472,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
+++ b/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -148,31 +148,43 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>彰化商業銀行嘉義分行</t>
   </si>
   <si>
+    <t>大眾商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>屏東繁華郵局(第23支局)</t>
+  </si>
+  <si>
+    <t>屏東廣東路郵局（第19支局）</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行營業部</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>大眾商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>屏東繁華郵局(第23支局)</t>
-  </si>
-  <si>
-    <t>屏東廣東路郵局（第19支局）</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行營業部</t>
-  </si>
-  <si>
     <t>蘇◦婕</t>
   </si>
   <si>
     <t>蘇〇婕</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>台鳳高爾夫球場會員證</t>
@@ -1115,13 +1127,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1132,24 +1144,45 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1103604</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1157,19 +1190,40 @@
       <c r="F2" s="2">
         <v>1103604</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1177,19 +1231,40 @@
       <c r="F3" s="2">
         <v>1419796</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1197,65 +1272,149 @@
       <c r="F4" s="2">
         <v>668766</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2">
         <v>608453</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2">
         <v>369603</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>625902</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1718</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1432,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -1290,7 +1449,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1317,16 +1476,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1334,16 +1493,16 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1351,16 +1510,16 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1368,16 +1527,16 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1385,16 +1544,16 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1402,16 +1561,16 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1419,16 +1578,16 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1449,19 +1608,19 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1472,19 +1631,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
+++ b/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -187,7 +187,13 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>台鳳高爾夫球場會員證</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1424,32 +1430,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1">
-        <v>760000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1459,6 +1486,27 @@
       </c>
       <c r="E2" s="2">
         <v>760000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1476,16 +1524,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1493,16 +1541,16 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1510,16 +1558,16 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1527,16 +1575,16 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1544,16 +1592,16 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1561,16 +1609,16 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1578,16 +1626,16 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1608,19 +1656,19 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1631,19 +1679,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
+++ b/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -193,7 +193,10 @@
     <t>台鳳高爾夫球場會員證</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -202,25 +205,13 @@
     <t>20LPL安泰分紅終身壽險</t>
   </si>
   <si>
-    <t>89.09.23109.09.23銀行扣款年繳51304</t>
-  </si>
-  <si>
     <t>安泰喬壽還本終身壽險</t>
   </si>
   <si>
-    <t>89.09.23109.09.23銀行扣款年繳43081</t>
-  </si>
-  <si>
-    <t>被保險人一蘇〇淳89.09.23109.09.23銀行扣款年繳19274</t>
-  </si>
-  <si>
-    <t>被保險人蘇〇婕89.09.23109.09.23銀行扣款年繳18476</t>
-  </si>
-  <si>
-    <t>被保險人蘇〇淳92.08.12112.08.12銀行扣款年繳68846</t>
-  </si>
-  <si>
-    <t>被保險人一蘇〇婕92.08.12112.08.12銀行扣款70084</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>南島休閒育樂股份有限公司</t>
@@ -233,6 +224,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1516,52 +1510,88 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1569,47 +1599,101 @@
       <c r="E3" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>61</v>
@@ -1618,15 +1702,33 @@
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>61</v>
@@ -1635,7 +1737,25 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1718</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1645,33 +1765,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1000000</v>
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>98</v>
       </c>
@@ -1679,19 +1820,40 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
+++ b/legislator/property/output/normal/蘇震清_2013-12-30_財產申報表_tmpb3b61.xlsx
@@ -13,14 +13,15 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="具有相當價值之財產" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -209,6 +210,27 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>綜合存款存摺(透支）</t>
+  </si>
+  <si>
+    <t>台灣銀行屏東分行屏東縣屏東市中山路43號</t>
+  </si>
+  <si>
+    <t>100年03月28日</t>
+  </si>
+  <si>
+    <t>貸款一中期擔保放款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
   <si>
     <t>address</t>
@@ -1773,13 +1795,111 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2698643</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1718</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -1820,22 +1940,22 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
